--- a/greenland-bd/greenland-bd.com.xlsx
+++ b/greenland-bd/greenland-bd.com.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\greenland-bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8764E0-0E7C-408B-95F2-EE0A099EAE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F591169-E0F4-4566-999B-E97B9CE6E1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="222">
   <si>
     <t>Product Name</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>color is not user friendly</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -1197,6 +1200,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1214,9 +1220,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2082,19 +2085,19 @@
   <dimension ref="A1:I980"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
@@ -2102,10 +2105,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="33" t="s">
         <v>36</v>
       </c>
@@ -2119,22 +2122,22 @@
         <v>2</v>
       </c>
       <c r="G1" s="35"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="55"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="12.75">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="34">
-        <v>44567</v>
+        <v>44569</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>6</v>
@@ -2149,8 +2152,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -2161,7 +2164,7 @@
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="54">
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -2173,10 +2176,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
@@ -2189,7 +2192,9 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2199,15 +2204,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1">
+    <row r="11" spans="1:9" ht="24" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>29</v>
       </c>
@@ -2358,7 +2363,7 @@
       </c>
       <c r="H11" s="48"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1">
+    <row r="12" spans="1:9" ht="25.5" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>30</v>
       </c>
@@ -2384,7 +2389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.5" customHeight="1">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1">
       <c r="A13" s="29" t="s">
         <v>32</v>
       </c>
@@ -2434,7 +2439,7 @@
       </c>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:9" ht="26.25" customHeight="1">
+    <row r="15" spans="1:9" ht="39" customHeight="1">
       <c r="A15" s="29" t="s">
         <v>69</v>
       </c>
@@ -2636,7 +2641,7 @@
       </c>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:8" ht="46.5" customHeight="1">
+    <row r="24" spans="1:8" ht="38.25" customHeight="1">
       <c r="A24" s="29" t="s">
         <v>102</v>
       </c>
@@ -2658,7 +2663,7 @@
       </c>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="27.75" customHeight="1">
+    <row r="25" spans="1:8" ht="25.5" customHeight="1">
       <c r="A25" s="29" t="s">
         <v>104</v>
       </c>
@@ -2680,7 +2685,7 @@
       </c>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" ht="27.75" customHeight="1">
+    <row r="26" spans="1:8" ht="23.25" customHeight="1">
       <c r="A26" s="38" t="s">
         <v>108</v>
       </c>
@@ -2702,7 +2707,7 @@
       </c>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="1:8" ht="40.5" customHeight="1">
+    <row r="27" spans="1:8" ht="37.5" customHeight="1">
       <c r="A27" s="29" t="s">
         <v>110</v>
       </c>
@@ -2768,7 +2773,7 @@
       </c>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1">
+    <row r="30" spans="1:8" ht="27" customHeight="1">
       <c r="A30" s="29" t="s">
         <v>121</v>
       </c>
@@ -2790,7 +2795,7 @@
       </c>
       <c r="H30" s="19"/>
     </row>
-    <row r="31" spans="1:8" ht="52.5" customHeight="1">
+    <row r="31" spans="1:8" ht="51" customHeight="1">
       <c r="A31" s="29" t="s">
         <v>124</v>
       </c>
@@ -2814,7 +2819,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="53.25" customHeight="1">
+    <row r="32" spans="1:8" ht="49.5" customHeight="1">
       <c r="A32" s="38" t="s">
         <v>129</v>
       </c>
@@ -2948,7 +2953,7 @@
       </c>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" ht="27.75" customHeight="1">
+    <row r="38" spans="1:8" ht="24" customHeight="1">
       <c r="A38" s="38" t="s">
         <v>150</v>
       </c>
@@ -2970,7 +2975,7 @@
       </c>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" ht="23.25" customHeight="1">
+    <row r="39" spans="1:8" ht="24" customHeight="1">
       <c r="A39" s="29" t="s">
         <v>154</v>
       </c>
@@ -2994,7 +2999,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="102" customHeight="1">
+    <row r="40" spans="1:8" ht="100.5" customHeight="1">
       <c r="A40" s="29" t="s">
         <v>159</v>
       </c>
@@ -3016,7 +3021,7 @@
       </c>
       <c r="H40" s="21"/>
     </row>
-    <row r="41" spans="1:8" ht="44.25" customHeight="1">
+    <row r="41" spans="1:8" ht="25.5" customHeight="1">
       <c r="A41" s="38" t="s">
         <v>162</v>
       </c>
@@ -3040,7 +3045,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="31.5" customHeight="1">
+    <row r="42" spans="1:8" ht="14.25" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>166</v>
       </c>
@@ -3062,7 +3067,7 @@
       </c>
       <c r="H42" s="19"/>
     </row>
-    <row r="43" spans="1:8" ht="41.25" customHeight="1">
+    <row r="43" spans="1:8" ht="13.5" customHeight="1">
       <c r="A43" s="29" t="s">
         <v>170</v>
       </c>
@@ -3084,7 +3089,7 @@
       </c>
       <c r="H43" s="21"/>
     </row>
-    <row r="44" spans="1:8" ht="37.5" customHeight="1">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="A44" s="38" t="s">
         <v>173</v>
       </c>
@@ -3106,7 +3111,7 @@
       </c>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="1:8" ht="39" customHeight="1">
+    <row r="45" spans="1:8" ht="37.5" customHeight="1">
       <c r="A45" s="29" t="s">
         <v>178</v>
       </c>
@@ -3130,7 +3135,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="31.5" customHeight="1">
+    <row r="46" spans="1:8" ht="24" customHeight="1">
       <c r="A46" s="29" t="s">
         <v>183</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="39" customHeight="1">
+    <row r="47" spans="1:8" ht="24.75" customHeight="1">
       <c r="A47" s="38" t="s">
         <v>188</v>
       </c>
@@ -3178,7 +3183,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="38.25" customHeight="1">
+    <row r="48" spans="1:8" ht="12.75" customHeight="1">
       <c r="A48" s="29" t="s">
         <v>193</v>
       </c>
@@ -3200,7 +3205,7 @@
       </c>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="1:8" ht="93.75" customHeight="1">
+    <row r="49" spans="1:8" ht="90.75" customHeight="1">
       <c r="A49" s="29" t="s">
         <v>196</v>
       </c>
@@ -3222,7 +3227,7 @@
       </c>
       <c r="H49" s="19"/>
     </row>
-    <row r="50" spans="1:8" ht="34.5" customHeight="1">
+    <row r="50" spans="1:8" ht="15" customHeight="1">
       <c r="A50" s="29" t="s">
         <v>200</v>
       </c>
@@ -3244,7 +3249,7 @@
       </c>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8" ht="27.75" customHeight="1">
+    <row r="51" spans="1:8" ht="13.5" customHeight="1">
       <c r="A51" s="29" t="s">
         <v>202</v>
       </c>
@@ -3266,7 +3271,7 @@
       </c>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="1:8" ht="87" customHeight="1">
+    <row r="52" spans="1:8" ht="86.25" customHeight="1">
       <c r="A52" s="29" t="s">
         <v>204</v>
       </c>
@@ -3292,7 +3297,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="44.25" customHeight="1">
+    <row r="53" spans="1:8" ht="26.25" customHeight="1">
       <c r="A53" s="29" t="s">
         <v>211</v>
       </c>
@@ -3318,7 +3323,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="36" customHeight="1">
+    <row r="54" spans="1:8" ht="26.25" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>217</v>
       </c>

--- a/greenland-bd/greenland-bd.com.xlsx
+++ b/greenland-bd/greenland-bd.com.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nafees\Desktop\office\greenland-bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F591169-E0F4-4566-999B-E97B9CE6E1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F4AE7-2FCA-4931-BEC9-2C6253EBB0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2085,21 +2085,21 @@
   <dimension ref="A1:I980"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14.42578125" style="1"/>
   </cols>
@@ -2221,7 +2221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1">
+    <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
+    <row r="11" spans="1:9" ht="26.25" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>29</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="H11" s="48"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" customHeight="1">
+    <row r="12" spans="1:9" ht="27" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>30</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1">
+    <row r="13" spans="1:9" ht="24" customHeight="1">
       <c r="A13" s="29" t="s">
         <v>32</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="48.75" customHeight="1">
+    <row r="14" spans="1:9" ht="49.5" customHeight="1">
       <c r="A14" s="38" t="s">
         <v>33</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:8" ht="26.25" customHeight="1">
       <c r="A21" s="29" t="s">
         <v>91</v>
       </c>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="1:8" ht="24" customHeight="1">
+    <row r="23" spans="1:8" ht="27.75" customHeight="1">
       <c r="A23" s="38" t="s">
         <v>98</v>
       </c>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:8" ht="38.25" customHeight="1">
+    <row r="24" spans="1:8" ht="48.75" customHeight="1">
       <c r="A24" s="29" t="s">
         <v>102</v>
       </c>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="25.5" customHeight="1">
+    <row r="25" spans="1:8" ht="30.75" customHeight="1">
       <c r="A25" s="29" t="s">
         <v>104</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" ht="23.25" customHeight="1">
+    <row r="26" spans="1:8" ht="39" customHeight="1">
       <c r="A26" s="38" t="s">
         <v>108</v>
       </c>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="H26" s="19"/>
     </row>
-    <row r="27" spans="1:8" ht="37.5" customHeight="1">
+    <row r="27" spans="1:8" ht="42" customHeight="1">
       <c r="A27" s="29" t="s">
         <v>110</v>
       </c>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="1:8" ht="27" customHeight="1">
+    <row r="30" spans="1:8" ht="34.5" customHeight="1">
       <c r="A30" s="29" t="s">
         <v>121</v>
       </c>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="H34" s="21"/>
     </row>
-    <row r="35" spans="1:8" ht="65.25" customHeight="1">
+    <row r="35" spans="1:8" ht="75" customHeight="1">
       <c r="A35" s="38" t="s">
         <v>140</v>
       </c>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:8" ht="23.25" customHeight="1">
+    <row r="37" spans="1:8" ht="26.25" customHeight="1">
       <c r="A37" s="29" t="s">
         <v>146</v>
       </c>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" ht="24" customHeight="1">
+    <row r="38" spans="1:8" ht="38.25" customHeight="1">
       <c r="A38" s="38" t="s">
         <v>150</v>
       </c>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" ht="24" customHeight="1">
+    <row r="39" spans="1:8" ht="27" customHeight="1">
       <c r="A39" s="29" t="s">
         <v>154</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="24" customHeight="1">
+    <row r="46" spans="1:8" ht="39.75" customHeight="1">
       <c r="A46" s="29" t="s">
         <v>183</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="24.75" customHeight="1">
+    <row r="47" spans="1:8" ht="41.25" customHeight="1">
       <c r="A47" s="38" t="s">
         <v>188</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1">
+    <row r="48" spans="1:8" ht="14.25" customHeight="1">
       <c r="A48" s="29" t="s">
         <v>193</v>
       </c>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="H48" s="19"/>
     </row>
-    <row r="49" spans="1:8" ht="90.75" customHeight="1">
+    <row r="49" spans="1:8" ht="103.5" customHeight="1">
       <c r="A49" s="29" t="s">
         <v>196</v>
       </c>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="H50" s="19"/>
     </row>
-    <row r="51" spans="1:8" ht="13.5" customHeight="1">
+    <row r="51" spans="1:8" ht="15" customHeight="1">
       <c r="A51" s="29" t="s">
         <v>202</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="26.25" customHeight="1">
+    <row r="53" spans="1:8" ht="35.25" customHeight="1">
       <c r="A53" s="29" t="s">
         <v>211</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="26.25" customHeight="1">
+    <row r="54" spans="1:8" ht="40.5" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>217</v>
       </c>
@@ -4678,6 +4678,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>